--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO254678.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO254678.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -22,6 +22,9 @@
     <x:t>Item</x:t>
   </x:si>
   <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
     <x:t>Amount</x:t>
   </x:si>
   <x:si>
@@ -34,232 +37,244 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227664</x:t>
+    <x:t>559180</x:t>
   </x:si>
   <x:si>
     <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
-    <x:t>60461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12092.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72553.2</x:t>
+    <x:t>2017-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32769.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23197.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38652</x:t>
   </x:si>
   <x:si>
     <x:t>CAD</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>907409</x:t>
+    <x:t>414348</x:t>
   </x:si>
   <x:si>
     <x:t>IT Support</x:t>
   </x:si>
   <x:si>
-    <x:t>207628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41525.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249154</x:t>
+    <x:t>2017-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41363.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>617925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33653.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201922</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-02-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24271.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13613.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81681.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>958567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1694.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10166.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34279.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>224587</x:t>
-  </x:si>
-  <x:si>
-    <x:t>248173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49634.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297808</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>857345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94447</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18889.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333271</x:t>
+    <x:t>418899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52918.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59606.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>357638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>975659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13729.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82377.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>911970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55600.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>721263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52708.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>530987</x:t>
   </x:si>
   <x:si>
     <x:t>Beverages and Catering</x:t>
   </x:si>
   <x:si>
-    <x:t>219276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43855.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>401987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6169.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37017.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>759429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4053.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24320.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22405.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-17</x:t>
+    <x:t>2017-11-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1888.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>209892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41978.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>842675</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2763.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16581.6</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -610,7 +625,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G14"/>
+  <x:dimension ref="A1:G15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -728,15 +743,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>36</x:v>
@@ -748,18 +763,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>42</x:v>
@@ -771,10 +786,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -782,7 +797,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>47</x:v>
@@ -794,10 +809,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
@@ -805,7 +820,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>52</x:v>
@@ -817,10 +832,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -828,7 +843,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>57</x:v>
@@ -840,10 +855,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
@@ -851,53 +866,53 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>73</x:v>
@@ -909,10 +924,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
@@ -920,7 +935,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>78</x:v>
@@ -932,10 +947,33 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
